--- a/biology/Botanique/Cumulopuntia/Cumulopuntia.xlsx
+++ b/biology/Botanique/Cumulopuntia/Cumulopuntia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cumulopuntia est un genre de plantes dicotylédones de la famille des Cactaceae, originaire d'Amérique du Sud.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des cactus formant des « coussins ».
-Cumulopuntia boliviana est un cactus densément armé d'épines jaunes à brun-rougeâtre qui peuvent atteindre 10 cm de long. Ce cactus se développe en formant de grands « coussins » hémisphériques creux[2], allant jusqu'à un mètre de diamètre. Les segments de la tige, allongés à ovoïdes, vert pâle, mesurent jusqu'à 7,5 cm de long sur 4 cm de diamètre. Les fleurs, jaunes, rarement orange, rose ou rouge, atteignent 5 cm de long pour 6 cm de diamètre[3].
+Cumulopuntia boliviana est un cactus densément armé d'épines jaunes à brun-rougeâtre qui peuvent atteindre 10 cm de long. Ce cactus se développe en formant de grands « coussins » hémisphériques creux, allant jusqu'à un mètre de diamètre. Les segments de la tige, allongés à ovoïdes, vert pâle, mesurent jusqu'à 7,5 cm de long sur 4 cm de diamètre. Les fleurs, jaunes, rarement orange, rose ou rouge, atteignent 5 cm de long pour 6 cm de diamètre.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Argentine, Bolivie, Chili, Pérou.
 </t>
@@ -574,7 +590,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cumulopuntia boliviana
 Cumulopuntia chichensis
@@ -586,7 +604,7 @@
 Cumulopuntia rossiana
 Cumulopuntia sphaerica
 Cumulopuntia subterranea
-Cumulopuntia zehnderi[4]</t>
+Cumulopuntia zehnderi</t>
         </is>
       </c>
     </row>
@@ -614,7 +632,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>F. Ritter Kakteen Südamerika 2, 1980 : 399.</t>
         </is>
